--- a/config/Company_BL_Dict.xlsx
+++ b/config/Company_BL_Dict.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\Python_Proj\Invoice_OCR\config\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E665DF4-8F8B-40CF-AB2C-9845AAE8A5DB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="96" windowWidth="12492" windowHeight="6756"/>
+    <workbookView xWindow="360" yWindow="1176" windowWidth="13476" windowHeight="11088" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BL_DICT" sheetId="1" r:id="rId1"/>
@@ -12,14 +18,14 @@
     <sheet name="BL_Master" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BL_DICT!$A$1:$B$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BL_DICT!#REF!</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="135">
   <si>
     <t>PLUS CONNECTION, INT'L</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -459,22 +465,94 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SGN\w{3}[\d-]{8]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HFIB\w{2}[\d\w]{6}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JPT\w{3}\d{8}</t>
+    <t>LogName_REGEX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BL_REGEX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONNECTION, INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YMLUM\d{9}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DANMAR LINE_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DD[A-Z]{3}\d{7}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MPSE\d{9}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XINGDA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC(I|1)\d{5}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GZSB[-]*[A-Z]{3}[-]*\d{7}[A-Z]?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KMTC[A-Z]{3,4}\d{6,7}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(CHX|BCO)[-]*\d{7}[A-Z]?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OSE[-]*[A-Z]{3}\d{5}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HDMU\s*[A-Z]{4}\d{7}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SGN[A-Z]{3}[\d-]{8}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JPT[A-Z]{3}\d{8}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S\d{5}[A-Z]{3}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAP[-]*[A-Z]{2}[-]*\d{7}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CF\d{4}[A-Z]{3}\d{4}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H(F|E)(I|1)B[A-Z]{2}[\dA-Z]{6}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONNECTION INTERNATIONAL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -543,7 +621,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -551,12 +629,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -598,7 +679,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -631,9 +712,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -666,6 +764,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -841,161 +956,264 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="41.3984375" customWidth="1"/>
     <col min="2" max="2" width="27.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+        <v>115</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="B2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+        <v>122</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+        <v>124</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>14</v>
       </c>
       <c r="B5" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>88</v>
       </c>
       <c r="B6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+        <v>133</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+        <v>120</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>89</v>
       </c>
       <c r="B8" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+        <v>125</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+        <v>126</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>90</v>
       </c>
       <c r="B10" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B11" t="s">
+        <v>117</v>
+      </c>
+      <c r="C11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>35</v>
       </c>
       <c r="B12" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+        <v>127</v>
+      </c>
+      <c r="C13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>91</v>
       </c>
       <c r="B14" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+        <v>128</v>
+      </c>
+      <c r="C14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>92</v>
       </c>
       <c r="B15" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+        <v>119</v>
+      </c>
+      <c r="C15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>93</v>
       </c>
       <c r="B16" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+        <v>129</v>
+      </c>
+      <c r="C16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>94</v>
       </c>
       <c r="B17" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B18" t="s">
+        <v>123</v>
+      </c>
+      <c r="C18" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
         <v>96</v>
       </c>
+      <c r="B19" t="s">
+        <v>130</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A20" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B20" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A21" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B21" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A22" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B22" t="s">
+        <v>122</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C27" s="1"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C28" s="1"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C29" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1005,7 +1223,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1054,11 +1272,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
